--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_814.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_814.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32468-d604417-Reviews-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Vagabond-Inn-Hacienda-Heights.h13518721.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_814.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_814.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,204 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r424478605-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>32468</t>
+  </si>
+  <si>
+    <t>604417</t>
+  </si>
+  <si>
+    <t>424478605</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 loves crossing </t>
+  </si>
+  <si>
+    <t>It was nice but need to invest in some new furniture. Chairs had a few to many stains but other than that the room was decent, nice flat screen TV with good selection of channels need at least one premium channel like HBO. Near freeway and medical Marijuana shop next door.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r400626258-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>400626258</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Brick bed</t>
+  </si>
+  <si>
+    <t>We only stayed here because we had a function to attend just up the street.The air conditioner was not working, so I went to the front desk to report it. When I told the lady the that it was not working, she said to me, "I'm sure it is working". I told her the at he thermostat looked like it was disconnected from the wall and there was no power. Another worker at the hotel got up from eating there in the "lobby" and came to look at it. Yes the air conditioner was unplugged!The bed was a brick with sheets on it.The bath towels are the size of the face towels and have the thickness of a sheet. If there are 2 of you staying in the room you only get 2 towels so if you shower twice during your 1 night stay, prepare to hang your towels.The people that run/own this establishment will do everything they can to save a buck.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Bojana N, Guest Relations Manager at Vagabond Inn Hacienda Heights, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>We only stayed here because we had a function to attend just up the street.The air conditioner was not working, so I went to the front desk to report it. When I told the lady the that it was not working, she said to me, "I'm sure it is working". I told her the at he thermostat looked like it was disconnected from the wall and there was no power. Another worker at the hotel got up from eating there in the "lobby" and came to look at it. Yes the air conditioner was unplugged!The bed was a brick with sheets on it.The bath towels are the size of the face towels and have the thickness of a sheet. If there are 2 of you staying in the room you only get 2 towels so if you shower twice during your 1 night stay, prepare to hang your towels.The people that run/own this establishment will do everything they can to save a buck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r400167765-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>400167765</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>The first room was dirty, walls were stained with hand oil along the wall that lined up to headboard edge. Floor was dirty in bathroom, and sheets had black stains on them. They were kind enough to move us to another room even after we somewhat settled in. The next room however, was also dirty. I definitely will be staying elsewhere next time. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Bojana N, Guest Relations Manager at Vagabond Inn Hacienda Heights, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>The first room was dirty, walls were stained with hand oil along the wall that lined up to headboard edge. Floor was dirty in bathroom, and sheets had black stains on them. They were kind enough to move us to another room even after we somewhat settled in. The next room however, was also dirty. I definitely will be staying elsewhere next time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r150223817-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>150223817</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>On the wild side</t>
+  </si>
+  <si>
+    <t>I had booked two rooms for my family for four nights between the holidays, choosing this motel for its close location to our relatives.  The first things we noticed was the night clerk's special outside window with bulletproof glass and the raunchy nightclub a few doors down, then the filthy homeless guy sitting on the parking lot curb below the stairs to our room.  As we opened the door we noticed the homeless encampment right over the property wall, blue tarps and shopping baskets.  In the room, the carpet was torn and someone lacking a pencil had carved a name and phone number onto the top of the nightstand.  There was a nasty stain in a very inappropriate place on one of the chairs, and the freeway obviously was the direct truck route into L.A. all night long.  On the last night, in the room next to us, a Montana cowboy there for the horse show talked loudly from 2 to 5:15 AM, perfectly audible through the uninsulated wall.  About the same time a party started in two rooms down the balcony, with giggling and talking and pounding up and down the stairs.  Food and drink debris was in the parking lot the next morning.  I did not call the night clerk to report this as I suspected he would not leave his enclosure and would just call and notify them that nearby guests were complaining.  The bulletproof glass window...I had booked two rooms for my family for four nights between the holidays, choosing this motel for its close location to our relatives.  The first things we noticed was the night clerk's special outside window with bulletproof glass and the raunchy nightclub a few doors down, then the filthy homeless guy sitting on the parking lot curb below the stairs to our room.  As we opened the door we noticed the homeless encampment right over the property wall, blue tarps and shopping baskets.  In the room, the carpet was torn and someone lacking a pencil had carved a name and phone number onto the top of the nightstand.  There was a nasty stain in a very inappropriate place on one of the chairs, and the freeway obviously was the direct truck route into L.A. all night long.  On the last night, in the room next to us, a Montana cowboy there for the horse show talked loudly from 2 to 5:15 AM, perfectly audible through the uninsulated wall.  About the same time a party started in two rooms down the balcony, with giggling and talking and pounding up and down the stairs.  Food and drink debris was in the parking lot the next morning.  I did not call the night clerk to report this as I suspected he would not leave his enclosure and would just call and notify them that nearby guests were complaining.  The bulletproof glass window hinted to me that I did not wish to call attention to myself.  Would I stay there again?  Maybe if I was alone and armed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I had booked two rooms for my family for four nights between the holidays, choosing this motel for its close location to our relatives.  The first things we noticed was the night clerk's special outside window with bulletproof glass and the raunchy nightclub a few doors down, then the filthy homeless guy sitting on the parking lot curb below the stairs to our room.  As we opened the door we noticed the homeless encampment right over the property wall, blue tarps and shopping baskets.  In the room, the carpet was torn and someone lacking a pencil had carved a name and phone number onto the top of the nightstand.  There was a nasty stain in a very inappropriate place on one of the chairs, and the freeway obviously was the direct truck route into L.A. all night long.  On the last night, in the room next to us, a Montana cowboy there for the horse show talked loudly from 2 to 5:15 AM, perfectly audible through the uninsulated wall.  About the same time a party started in two rooms down the balcony, with giggling and talking and pounding up and down the stairs.  Food and drink debris was in the parking lot the next morning.  I did not call the night clerk to report this as I suspected he would not leave his enclosure and would just call and notify them that nearby guests were complaining.  The bulletproof glass window...I had booked two rooms for my family for four nights between the holidays, choosing this motel for its close location to our relatives.  The first things we noticed was the night clerk's special outside window with bulletproof glass and the raunchy nightclub a few doors down, then the filthy homeless guy sitting on the parking lot curb below the stairs to our room.  As we opened the door we noticed the homeless encampment right over the property wall, blue tarps and shopping baskets.  In the room, the carpet was torn and someone lacking a pencil had carved a name and phone number onto the top of the nightstand.  There was a nasty stain in a very inappropriate place on one of the chairs, and the freeway obviously was the direct truck route into L.A. all night long.  On the last night, in the room next to us, a Montana cowboy there for the horse show talked loudly from 2 to 5:15 AM, perfectly audible through the uninsulated wall.  About the same time a party started in two rooms down the balcony, with giggling and talking and pounding up and down the stairs.  Food and drink debris was in the parking lot the next morning.  I did not call the night clerk to report this as I suspected he would not leave his enclosure and would just call and notify them that nearby guests were complaining.  The bulletproof glass window hinted to me that I did not wish to call attention to myself.  Would I stay there again?  Maybe if I was alone and armed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r129786026-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>129786026</t>
+  </si>
+  <si>
+    <t>05/11/2012</t>
+  </si>
+  <si>
+    <t>Great value. Pushy checkout.</t>
+  </si>
+  <si>
+    <t>I stayed here April 29th-May1st with my fiance. I'm from London, he's a Hacienda Heights resident and we needed a couple nights stay before my departure. This place is EXTREMELY good value. The rooms were neat, clean and had the basic amenities you need (towels,, soap, shampoo etc). We paid approx $60 per night before tax. The place is well kept and not grimey at all. I would stay here again.
+The only downside is that on our chekout date, we went walking the trails in nearby Schabarum park, as was our routine every morning. We didn't make it back to the hotel til just after 12pm. Checkout time I believe is 11am. I had packed the night before and was just in the shower when the owner (female) burst into our room without knocking saying that she had entered earlier but we weren't in. My fiance told her we were just getting ourselves ready to leave. 
+Thereafter, our phone rang NON STOP over the next half hour as we got ready and loaded the car with our belongings. I've stayed in alot of hotels and staying a little over checkout time is never usually an issue long as they know you are leaving imminently. The phone ringing constantly was rude, distracting and bad customer service. It's not like we were some ghetto occupants trying to overstay.
+Anyway, I'd still give this his a high rating as is great value...I stayed here April 29th-May1st with my fiance. I'm from London, he's a Hacienda Heights resident and we needed a couple nights stay before my departure. This place is EXTREMELY good value. The rooms were neat, clean and had the basic amenities you need (towels,, soap, shampoo etc). We paid approx $60 per night before tax. The place is well kept and not grimey at all. I would stay here again.The only downside is that on our chekout date, we went walking the trails in nearby Schabarum park, as was our routine every morning. We didn't make it back to the hotel til just after 12pm. Checkout time I believe is 11am. I had packed the night before and was just in the shower when the owner (female) burst into our room without knocking saying that she had entered earlier but we weren't in. My fiance told her we were just getting ourselves ready to leave. Thereafter, our phone rang NON STOP over the next half hour as we got ready and loaded the car with our belongings. I've stayed in alot of hotels and staying a little over checkout time is never usually an issue long as they know you are leaving imminently. The phone ringing constantly was rude, distracting and bad customer service. It's not like we were some ghetto occupants trying to overstay.Anyway, I'd still give this his a high rating as is great value and perfectly decent to stay in for short stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I stayed here April 29th-May1st with my fiance. I'm from London, he's a Hacienda Heights resident and we needed a couple nights stay before my departure. This place is EXTREMELY good value. The rooms were neat, clean and had the basic amenities you need (towels,, soap, shampoo etc). We paid approx $60 per night before tax. The place is well kept and not grimey at all. I would stay here again.
+The only downside is that on our chekout date, we went walking the trails in nearby Schabarum park, as was our routine every morning. We didn't make it back to the hotel til just after 12pm. Checkout time I believe is 11am. I had packed the night before and was just in the shower when the owner (female) burst into our room without knocking saying that she had entered earlier but we weren't in. My fiance told her we were just getting ourselves ready to leave. 
+Thereafter, our phone rang NON STOP over the next half hour as we got ready and loaded the car with our belongings. I've stayed in alot of hotels and staying a little over checkout time is never usually an issue long as they know you are leaving imminently. The phone ringing constantly was rude, distracting and bad customer service. It's not like we were some ghetto occupants trying to overstay.
+Anyway, I'd still give this his a high rating as is great value...I stayed here April 29th-May1st with my fiance. I'm from London, he's a Hacienda Heights resident and we needed a couple nights stay before my departure. This place is EXTREMELY good value. The rooms were neat, clean and had the basic amenities you need (towels,, soap, shampoo etc). We paid approx $60 per night before tax. The place is well kept and not grimey at all. I would stay here again.The only downside is that on our chekout date, we went walking the trails in nearby Schabarum park, as was our routine every morning. We didn't make it back to the hotel til just after 12pm. Checkout time I believe is 11am. I had packed the night before and was just in the shower when the owner (female) burst into our room without knocking saying that she had entered earlier but we weren't in. My fiance told her we were just getting ourselves ready to leave. Thereafter, our phone rang NON STOP over the next half hour as we got ready and loaded the car with our belongings. I've stayed in alot of hotels and staying a little over checkout time is never usually an issue long as they know you are leaving imminently. The phone ringing constantly was rude, distracting and bad customer service. It's not like we were some ghetto occupants trying to overstay.Anyway, I'd still give this his a high rating as is great value and perfectly decent to stay in for short stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r125009232-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>125009232</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Love this place</t>
+  </si>
+  <si>
+    <t>I am  Hacienda Heights often on business and so glad I found theVagabond.Every time I have stayed here, the room has been spotless.It isn't a fancy place, but it is very, very clean.It is nice having a microwave and a refrigerator in the room,and laundry facilities just down the hall.There is a nice basic breakfast in the lobby with juice, milk,coffee, cereals, and toast.There is free wi-fi in the rooms and the connection is great. Ann and Tai the managers are very helpful, friendly and kind.  IfI've needed a new key, or directions or an extratowel, they never make me feel like I am bothering them.Arthur, the evening manager is also very nice andready to help if I need to fax something or if I need quartersfor the washer and dryer.The rooms closer to the street can be a little bit noisy sometimes becauseof the freeway off ramp, but it isn'treally bothersome and there are rooms that are furtheraway from the street.There are restaurants within walking distance andshopping not too far away.Thank you to all the staff for welcoming me, remembering my name and making my stays at the Vagabond very pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I am  Hacienda Heights often on business and so glad I found theVagabond.Every time I have stayed here, the room has been spotless.It isn't a fancy place, but it is very, very clean.It is nice having a microwave and a refrigerator in the room,and laundry facilities just down the hall.There is a nice basic breakfast in the lobby with juice, milk,coffee, cereals, and toast.There is free wi-fi in the rooms and the connection is great. Ann and Tai the managers are very helpful, friendly and kind.  IfI've needed a new key, or directions or an extratowel, they never make me feel like I am bothering them.Arthur, the evening manager is also very nice andready to help if I need to fax something or if I need quartersfor the washer and dryer.The rooms closer to the street can be a little bit noisy sometimes becauseof the freeway off ramp, but it isn'treally bothersome and there are rooms that are furtheraway from the street.There are restaurants within walking distance andshopping not too far away.Thank you to all the staff for welcoming me, remembering my name and making my stays at the Vagabond very pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r5728820-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>5728820</t>
+  </si>
+  <si>
+    <t>08/29/2006</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>The room we got was absolutely appalling. The second that we opened the door, we got a huge wiff of the smoke that seemed to have infused everything in the room. Even our clothes smelled of smoke after we woke up the next day - ew! The carpet was worn out and we were afraid to walk around barefoot. The table and chair furnishings were sticky. The beds were uncomfortable and the supposedly complimentary Internet access didn't work at all, even after we had been given the login info from the front desk who was a creepy guy. This place is really below average and gave us the feeling that it was unsafe. Very dirty, bad-smelling and not well-kept. We will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The room we got was absolutely appalling. The second that we opened the door, we got a huge wiff of the smoke that seemed to have infused everything in the room. Even our clothes smelled of smoke after we woke up the next day - ew! The carpet was worn out and we were afraid to walk around barefoot. The table and chair furnishings were sticky. The beds were uncomfortable and the supposedly complimentary Internet access didn't work at all, even after we had been given the login info from the front desk who was a creepy guy. This place is really below average and gave us the feeling that it was unsafe. Very dirty, bad-smelling and not well-kept. We will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r5034574-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
+  </si>
+  <si>
+    <t>5034574</t>
+  </si>
+  <si>
+    <t>05/03/2006</t>
+  </si>
+  <si>
+    <t>Brand New Property! I Found it on Accident!</t>
+  </si>
+  <si>
+    <t>I found Vagabond Inn Hacienda Heights when I was on a long drive and needed a place to crash. I guess it has only been open a short time. The room had a microwave and fridge, and was really a comfortable stay for me. I highly recommend it to anyone.</t>
+  </si>
+  <si>
+    <t>May 2006</t>
   </si>
 </sst>
 </file>
@@ -648,6 +846,518 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56693</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_814.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_814.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Richard G</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>shanks70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r400626258-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>We only stayed here because we had a function to attend just up the street.The air conditioner was not working, so I went to the front desk to report it. When I told the lady the that it was not working, she said to me, "I'm sure it is working". I told her the at he thermostat looked like it was disconnected from the wall and there was no power. Another worker at the hotel got up from eating there in the "lobby" and came to look at it. Yes the air conditioner was unplugged!The bed was a brick with sheets on it.The bath towels are the size of the face towels and have the thickness of a sheet. If there are 2 of you staying in the room you only get 2 towels so if you shower twice during your 1 night stay, prepare to hang your towels.The people that run/own this establishment will do everything they can to save a buck.More</t>
   </si>
   <si>
+    <t>pabs0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r400167765-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>The first room was dirty, walls were stained with hand oil along the wall that lined up to headboard edge. Floor was dirty in bathroom, and sheets had black stains on them. They were kind enough to move us to another room even after we somewhat settled in. The next room however, was also dirty. I definitely will be staying elsewhere next time. More</t>
   </si>
   <si>
+    <t>grizztooth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r150223817-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
   </si>
   <si>
     <t>I had booked two rooms for my family for four nights between the holidays, choosing this motel for its close location to our relatives.  The first things we noticed was the night clerk's special outside window with bulletproof glass and the raunchy nightclub a few doors down, then the filthy homeless guy sitting on the parking lot curb below the stairs to our room.  As we opened the door we noticed the homeless encampment right over the property wall, blue tarps and shopping baskets.  In the room, the carpet was torn and someone lacking a pencil had carved a name and phone number onto the top of the nightstand.  There was a nasty stain in a very inappropriate place on one of the chairs, and the freeway obviously was the direct truck route into L.A. all night long.  On the last night, in the room next to us, a Montana cowboy there for the horse show talked loudly from 2 to 5:15 AM, perfectly audible through the uninsulated wall.  About the same time a party started in two rooms down the balcony, with giggling and talking and pounding up and down the stairs.  Food and drink debris was in the parking lot the next morning.  I did not call the night clerk to report this as I suspected he would not leave his enclosure and would just call and notify them that nearby guests were complaining.  The bulletproof glass window...I had booked two rooms for my family for four nights between the holidays, choosing this motel for its close location to our relatives.  The first things we noticed was the night clerk's special outside window with bulletproof glass and the raunchy nightclub a few doors down, then the filthy homeless guy sitting on the parking lot curb below the stairs to our room.  As we opened the door we noticed the homeless encampment right over the property wall, blue tarps and shopping baskets.  In the room, the carpet was torn and someone lacking a pencil had carved a name and phone number onto the top of the nightstand.  There was a nasty stain in a very inappropriate place on one of the chairs, and the freeway obviously was the direct truck route into L.A. all night long.  On the last night, in the room next to us, a Montana cowboy there for the horse show talked loudly from 2 to 5:15 AM, perfectly audible through the uninsulated wall.  About the same time a party started in two rooms down the balcony, with giggling and talking and pounding up and down the stairs.  Food and drink debris was in the parking lot the next morning.  I did not call the night clerk to report this as I suspected he would not leave his enclosure and would just call and notify them that nearby guests were complaining.  The bulletproof glass window hinted to me that I did not wish to call attention to myself.  Would I stay there again?  Maybe if I was alone and armed.More</t>
+  </si>
+  <si>
+    <t>X-Rae_Travel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r129786026-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
@@ -282,6 +297,9 @@
 Anyway, I'd still give this his a high rating as is great value...I stayed here April 29th-May1st with my fiance. I'm from London, he's a Hacienda Heights resident and we needed a couple nights stay before my departure. This place is EXTREMELY good value. The rooms were neat, clean and had the basic amenities you need (towels,, soap, shampoo etc). We paid approx $60 per night before tax. The place is well kept and not grimey at all. I would stay here again.The only downside is that on our chekout date, we went walking the trails in nearby Schabarum park, as was our routine every morning. We didn't make it back to the hotel til just after 12pm. Checkout time I believe is 11am. I had packed the night before and was just in the shower when the owner (female) burst into our room without knocking saying that she had entered earlier but we weren't in. My fiance told her we were just getting ourselves ready to leave. Thereafter, our phone rang NON STOP over the next half hour as we got ready and loaded the car with our belongings. I've stayed in alot of hotels and staying a little over checkout time is never usually an issue long as they know you are leaving imminently. The phone ringing constantly was rude, distracting and bad customer service. It's not like we were some ghetto occupants trying to overstay.Anyway, I'd still give this his a high rating as is great value and perfectly decent to stay in for short stays.More</t>
   </si>
   <si>
+    <t>Kathysays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r125009232-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>I am  Hacienda Heights often on business and so glad I found theVagabond.Every time I have stayed here, the room has been spotless.It isn't a fancy place, but it is very, very clean.It is nice having a microwave and a refrigerator in the room,and laundry facilities just down the hall.There is a nice basic breakfast in the lobby with juice, milk,coffee, cereals, and toast.There is free wi-fi in the rooms and the connection is great. Ann and Tai the managers are very helpful, friendly and kind.  IfI've needed a new key, or directions or an extratowel, they never make me feel like I am bothering them.Arthur, the evening manager is also very nice andready to help if I need to fax something or if I need quartersfor the washer and dryer.The rooms closer to the street can be a little bit noisy sometimes becauseof the freeway off ramp, but it isn'treally bothersome and there are rooms that are furtheraway from the street.There are restaurants within walking distance andshopping not too far away.Thank you to all the staff for welcoming me, remembering my name and making my stays at the Vagabond very pleasant.More</t>
   </si>
   <si>
+    <t>Joan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r5728820-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
   </si>
   <si>
@@ -328,6 +349,9 @@
   </si>
   <si>
     <t>The room we got was absolutely appalling. The second that we opened the door, we got a huge wiff of the smoke that seemed to have infused everything in the room. Even our clothes smelled of smoke after we woke up the next day - ew! The carpet was worn out and we were afraid to walk around barefoot. The table and chair furnishings were sticky. The beds were uncomfortable and the supposedly complimentary Internet access didn't work at all, even after we had been given the login info from the front desk who was a creepy guy. This place is really below average and gave us the feeling that it was unsafe. Very dirty, bad-smelling and not well-kept. We will not stay here again.More</t>
+  </si>
+  <si>
+    <t>Brianaveryfilm97</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32468-d604417-r5034574-Vagabond_Inn_Hacienda_Heights-Hacienda_Heights_California.html</t>
@@ -850,43 +874,47 @@
       <c r="A2" t="n">
         <v>56693</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -900,50 +928,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56693</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -955,56 +987,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56693</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1016,56 +1052,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56693</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1089,50 +1129,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56693</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1156,50 +1200,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56693</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1223,50 +1271,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56693</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1290,50 +1342,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56693</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1355,7 +1411,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
